--- a/output/outliers/fish_id_outliers.xlsx
+++ b/output/outliers/fish_id_outliers.xlsx
@@ -44,15 +44,15 @@
     <t xml:space="preserve">2005_BATHTEN_BT01</t>
   </si>
   <si>
+    <t xml:space="preserve">Mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lola</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cu</t>
   </si>
   <si>
-    <t xml:space="preserve">Lola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mg</t>
-  </si>
-  <si>
     <t xml:space="preserve">2005_GYMNFRA_GF11</t>
   </si>
   <si>
@@ -89,22 +89,22 @@
     <t xml:space="preserve">2005_NOTOCOA_NC01</t>
   </si>
   <si>
+    <t xml:space="preserve">Clément</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fe</t>
   </si>
   <si>
-    <t xml:space="preserve">Clément</t>
-  </si>
-  <si>
     <t xml:space="preserve">2005_NOTOCOA_NC02</t>
   </si>
   <si>
+    <t xml:space="preserve">Mn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni</t>
+  </si>
+  <si>
     <t xml:space="preserve">Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ni</t>
   </si>
   <si>
     <t xml:space="preserve">2005_NOTOCOA_NC03</t>
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8876124678663</v>
+        <v>3612.70686053985</v>
       </c>
       <c r="D2" t="n">
-        <v>5.52593235210105</v>
+        <v>2032.30346007291</v>
       </c>
       <c r="E2" t="n">
-        <v>2.16770356458113</v>
+        <v>942.322706571243</v>
       </c>
       <c r="F2" t="n">
-        <v>20.2263865448408</v>
+        <v>4925.2118145446</v>
       </c>
       <c r="G2" t="n">
         <v>82.7353094123766</v>
@@ -752,16 +752,16 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>3612.70686053985</v>
+        <v>12.8876124678663</v>
       </c>
       <c r="D3" t="n">
-        <v>2032.30346007291</v>
+        <v>5.52593235210105</v>
       </c>
       <c r="E3" t="n">
-        <v>942.322706571243</v>
+        <v>2.16770356458113</v>
       </c>
       <c r="F3" t="n">
-        <v>4925.2118145446</v>
+        <v>20.2263865448408</v>
       </c>
       <c r="G3" t="n">
         <v>82.7353094123766</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>13.6289300461998</v>
@@ -857,19 +857,19 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>12.5358107555046</v>
+        <v>23276.8519276418</v>
       </c>
       <c r="D7" t="n">
-        <v>5.52593235210105</v>
+        <v>10990.6338675585</v>
       </c>
       <c r="E7" t="n">
-        <v>2.16770356458113</v>
+        <v>3203.73495445673</v>
       </c>
       <c r="F7" t="n">
-        <v>20.2263865448408</v>
+        <v>30190.3374233129</v>
       </c>
       <c r="G7" t="n">
         <v>82.5809754281459</v>
@@ -884,19 +884,19 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>23276.8519276418</v>
+        <v>12.5358107555046</v>
       </c>
       <c r="D8" t="n">
-        <v>10990.6338675585</v>
+        <v>5.52593235210105</v>
       </c>
       <c r="E8" t="n">
-        <v>3203.73495445673</v>
+        <v>2.16770356458113</v>
       </c>
       <c r="F8" t="n">
-        <v>30190.3374233129</v>
+        <v>20.2263865448408</v>
       </c>
       <c r="G8" t="n">
         <v>82.5809754281459</v>
@@ -938,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
         <v>12.4147283636065</v>
@@ -965,19 +965,19 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>14.336364394761</v>
+        <v>23320.4513222658</v>
       </c>
       <c r="D11" t="n">
-        <v>5.52593235210105</v>
+        <v>10990.6338675585</v>
       </c>
       <c r="E11" t="n">
-        <v>2.16770356458113</v>
+        <v>3203.73495445673</v>
       </c>
       <c r="F11" t="n">
-        <v>20.2263865448408</v>
+        <v>30190.3374233129</v>
       </c>
       <c r="G11" t="n">
         <v>83.6253902185224</v>
@@ -992,19 +992,19 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>23320.4513222658</v>
+        <v>14.336364394761</v>
       </c>
       <c r="D12" t="n">
-        <v>10990.6338675585</v>
+        <v>5.52593235210105</v>
       </c>
       <c r="E12" t="n">
-        <v>3203.73495445673</v>
+        <v>2.16770356458113</v>
       </c>
       <c r="F12" t="n">
-        <v>30190.3374233129</v>
+        <v>20.2263865448408</v>
       </c>
       <c r="G12" t="n">
         <v>83.6253902185224</v>
@@ -1019,7 +1019,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
         <v>11.4926922769747</v>
@@ -1046,19 +1046,19 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>11.8780188606916</v>
+        <v>24248.9802959442</v>
       </c>
       <c r="D14" t="n">
-        <v>5.52593235210105</v>
+        <v>10990.6338675585</v>
       </c>
       <c r="E14" t="n">
-        <v>2.16770356458113</v>
+        <v>3203.73495445673</v>
       </c>
       <c r="F14" t="n">
-        <v>20.2263865448408</v>
+        <v>30190.3374233129</v>
       </c>
       <c r="G14" t="n">
         <v>84.6122914013806</v>
@@ -1073,19 +1073,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>24248.9802959442</v>
+        <v>150.262592961742</v>
       </c>
       <c r="D15" t="n">
-        <v>10990.6338675585</v>
+        <v>53.6194671067111</v>
       </c>
       <c r="E15" t="n">
-        <v>3203.73495445673</v>
+        <v>17.2797769119108</v>
       </c>
       <c r="F15" t="n">
-        <v>30190.3374233129</v>
+        <v>161.07593729738</v>
       </c>
       <c r="G15" t="n">
         <v>84.6122914013806</v>
@@ -1100,19 +1100,19 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>150.262592961742</v>
+        <v>11.8780188606916</v>
       </c>
       <c r="D16" t="n">
-        <v>53.6194671067111</v>
+        <v>5.52593235210105</v>
       </c>
       <c r="E16" t="n">
-        <v>17.2797769119108</v>
+        <v>2.16770356458113</v>
       </c>
       <c r="F16" t="n">
-        <v>161.07593729738</v>
+        <v>20.2263865448408</v>
       </c>
       <c r="G16" t="n">
         <v>84.6122914013806</v>
@@ -1127,25 +1127,25 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>136.648286727058</v>
+        <v>3656.19760310583</v>
       </c>
       <c r="D17" t="n">
-        <v>56.173040302678</v>
+        <v>2032.30346007291</v>
       </c>
       <c r="E17" t="n">
-        <v>6.58423803779654</v>
+        <v>942.322706571243</v>
       </c>
       <c r="F17" t="n">
-        <v>642.138642475816</v>
+        <v>4925.2118145446</v>
       </c>
       <c r="G17" t="n">
         <v>78.1199351701783</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17"/>
     </row>
@@ -1154,25 +1154,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C18" t="n">
-        <v>3656.19760310583</v>
+        <v>136.648286727058</v>
       </c>
       <c r="D18" t="n">
-        <v>2032.30346007291</v>
+        <v>56.173040302678</v>
       </c>
       <c r="E18" t="n">
-        <v>942.322706571243</v>
+        <v>6.58423803779654</v>
       </c>
       <c r="F18" t="n">
-        <v>4925.2118145446</v>
+        <v>642.138642475816</v>
       </c>
       <c r="G18" t="n">
         <v>78.1199351701783</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18"/>
     </row>
@@ -1181,25 +1181,25 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>0.176217933631443</v>
+        <v>22762.3264297482</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0946495589522645</v>
+        <v>10990.6338675585</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0223495702005731</v>
+        <v>3203.73495445673</v>
       </c>
       <c r="F19" t="n">
-        <v>0.48519837857757</v>
+        <v>30190.3374233129</v>
       </c>
       <c r="G19" t="n">
         <v>71.1904761904761</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19"/>
     </row>
@@ -1208,25 +1208,25 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>228.936220287126</v>
+        <v>4925.2118145446</v>
       </c>
       <c r="D20" t="n">
-        <v>56.173040302678</v>
+        <v>2032.30346007291</v>
       </c>
       <c r="E20" t="n">
-        <v>6.58423803779654</v>
+        <v>942.322706571243</v>
       </c>
       <c r="F20" t="n">
-        <v>642.138642475816</v>
+        <v>4925.2118145446</v>
       </c>
       <c r="G20" t="n">
         <v>71.1904761904761</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20"/>
     </row>
@@ -1235,25 +1235,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C21" t="n">
-        <v>4925.2118145446</v>
+        <v>228.936220287126</v>
       </c>
       <c r="D21" t="n">
-        <v>2032.30346007291</v>
+        <v>56.173040302678</v>
       </c>
       <c r="E21" t="n">
-        <v>942.322706571243</v>
+        <v>6.58423803779654</v>
       </c>
       <c r="F21" t="n">
-        <v>4925.2118145446</v>
+        <v>642.138642475816</v>
       </c>
       <c r="G21" t="n">
         <v>71.1904761904761</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21"/>
     </row>
@@ -1262,7 +1262,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="n">
         <v>6.17204048011297</v>
@@ -1280,7 +1280,7 @@
         <v>71.1904761904761</v>
       </c>
       <c r="H22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22"/>
     </row>
@@ -1289,25 +1289,25 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>22762.3264297482</v>
+        <v>3.44492821840433</v>
       </c>
       <c r="D23" t="n">
-        <v>10990.6338675585</v>
+        <v>1.31706547033442</v>
       </c>
       <c r="E23" t="n">
-        <v>3203.73495445673</v>
+        <v>0.22712511938873</v>
       </c>
       <c r="F23" t="n">
-        <v>30190.3374233129</v>
+        <v>26.9520533922942</v>
       </c>
       <c r="G23" t="n">
         <v>71.1904761904761</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23"/>
     </row>
@@ -1319,22 +1319,22 @@
         <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>3.44492821840433</v>
+        <v>0.176217933631443</v>
       </c>
       <c r="D24" t="n">
-        <v>1.31706547033442</v>
+        <v>0.0946495589522645</v>
       </c>
       <c r="E24" t="n">
-        <v>0.22712511938873</v>
+        <v>0.0223495702005731</v>
       </c>
       <c r="F24" t="n">
-        <v>26.9520533922942</v>
+        <v>0.48519837857757</v>
       </c>
       <c r="G24" t="n">
         <v>71.1904761904761</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I24"/>
     </row>
@@ -1343,25 +1343,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>0.316918776718185</v>
+        <v>3850.87964485367</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0946495589522645</v>
+        <v>2032.30346007291</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0223495702005731</v>
+        <v>942.322706571243</v>
       </c>
       <c r="F25" t="n">
-        <v>0.48519837857757</v>
+        <v>4925.2118145446</v>
       </c>
       <c r="G25" t="n">
         <v>68.8336520076481</v>
       </c>
       <c r="H25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I25"/>
     </row>
@@ -1370,25 +1370,25 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C26" t="n">
-        <v>15.0485037816508</v>
+        <v>476.492107859257</v>
       </c>
       <c r="D26" t="n">
-        <v>5.52593235210105</v>
+        <v>56.173040302678</v>
       </c>
       <c r="E26" t="n">
-        <v>2.16770356458113</v>
+        <v>6.58423803779654</v>
       </c>
       <c r="F26" t="n">
-        <v>20.2263865448408</v>
+        <v>642.138642475816</v>
       </c>
       <c r="G26" t="n">
         <v>68.8336520076481</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I26"/>
     </row>
@@ -1397,25 +1397,25 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>476.492107859257</v>
+        <v>131.424695823742</v>
       </c>
       <c r="D27" t="n">
-        <v>56.173040302678</v>
+        <v>53.6194671067111</v>
       </c>
       <c r="E27" t="n">
-        <v>6.58423803779654</v>
+        <v>17.2797769119108</v>
       </c>
       <c r="F27" t="n">
-        <v>642.138642475816</v>
+        <v>161.07593729738</v>
       </c>
       <c r="G27" t="n">
         <v>68.8336520076481</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I27"/>
     </row>
@@ -1427,22 +1427,22 @@
         <v>12</v>
       </c>
       <c r="C28" t="n">
-        <v>3850.87964485367</v>
+        <v>15.0485037816508</v>
       </c>
       <c r="D28" t="n">
-        <v>2032.30346007291</v>
+        <v>5.52593235210105</v>
       </c>
       <c r="E28" t="n">
-        <v>942.322706571243</v>
+        <v>2.16770356458113</v>
       </c>
       <c r="F28" t="n">
-        <v>4925.2118145446</v>
+        <v>20.2263865448408</v>
       </c>
       <c r="G28" t="n">
         <v>68.8336520076481</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I28"/>
     </row>
@@ -1451,7 +1451,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="n">
         <v>8.23331141072016</v>
@@ -1469,7 +1469,7 @@
         <v>68.8336520076481</v>
       </c>
       <c r="H29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29"/>
     </row>
@@ -1478,7 +1478,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="n">
         <v>3.24893127260769</v>
@@ -1496,7 +1496,7 @@
         <v>68.8336520076481</v>
       </c>
       <c r="H30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I30"/>
     </row>
@@ -1505,25 +1505,25 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>131.424695823742</v>
+        <v>0.316918776718185</v>
       </c>
       <c r="D31" t="n">
-        <v>53.6194671067111</v>
+        <v>0.0946495589522645</v>
       </c>
       <c r="E31" t="n">
-        <v>17.2797769119108</v>
+        <v>0.0223495702005731</v>
       </c>
       <c r="F31" t="n">
-        <v>161.07593729738</v>
+        <v>0.48519837857757</v>
       </c>
       <c r="G31" t="n">
         <v>68.8336520076481</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I31"/>
     </row>
@@ -1532,25 +1532,25 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>0.206599546062969</v>
+        <v>4006.50352092184</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0946495589522645</v>
+        <v>2032.30346007291</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0223495702005731</v>
+        <v>942.322706571243</v>
       </c>
       <c r="F32" t="n">
-        <v>0.48519837857757</v>
+        <v>4925.2118145446</v>
       </c>
       <c r="G32" t="n">
         <v>71.4086471408647</v>
       </c>
       <c r="H32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I32"/>
     </row>
@@ -1559,25 +1559,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C33" t="n">
-        <v>20.2263865448408</v>
+        <v>223.517430018041</v>
       </c>
       <c r="D33" t="n">
-        <v>5.52593235210105</v>
+        <v>56.173040302678</v>
       </c>
       <c r="E33" t="n">
-        <v>2.16770356458113</v>
+        <v>6.58423803779654</v>
       </c>
       <c r="F33" t="n">
-        <v>20.2263865448408</v>
+        <v>642.138642475816</v>
       </c>
       <c r="G33" t="n">
         <v>71.4086471408647</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I33"/>
     </row>
@@ -1586,25 +1586,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C34" t="n">
-        <v>223.517430018041</v>
+        <v>20.2263865448408</v>
       </c>
       <c r="D34" t="n">
-        <v>56.173040302678</v>
+        <v>5.52593235210105</v>
       </c>
       <c r="E34" t="n">
-        <v>6.58423803779654</v>
+        <v>2.16770356458113</v>
       </c>
       <c r="F34" t="n">
-        <v>642.138642475816</v>
+        <v>20.2263865448408</v>
       </c>
       <c r="G34" t="n">
         <v>71.4086471408647</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I34"/>
     </row>
@@ -1613,25 +1613,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C35" t="n">
-        <v>4006.50352092184</v>
+        <v>6.76831752313333</v>
       </c>
       <c r="D35" t="n">
-        <v>2032.30346007291</v>
+        <v>2.93832418726495</v>
       </c>
       <c r="E35" t="n">
-        <v>942.322706571243</v>
+        <v>0.505013069090625</v>
       </c>
       <c r="F35" t="n">
-        <v>4925.2118145446</v>
+        <v>82.9367697861274</v>
       </c>
       <c r="G35" t="n">
         <v>71.4086471408647</v>
       </c>
       <c r="H35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I35"/>
     </row>
@@ -1643,22 +1643,22 @@
         <v>29</v>
       </c>
       <c r="C36" t="n">
-        <v>6.76831752313333</v>
+        <v>4.48699295815632</v>
       </c>
       <c r="D36" t="n">
-        <v>2.93832418726495</v>
+        <v>1.31706547033442</v>
       </c>
       <c r="E36" t="n">
-        <v>0.505013069090625</v>
+        <v>0.22712511938873</v>
       </c>
       <c r="F36" t="n">
-        <v>82.9367697861274</v>
+        <v>26.9520533922942</v>
       </c>
       <c r="G36" t="n">
         <v>71.4086471408647</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I36"/>
     </row>
@@ -1670,22 +1670,22 @@
         <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>4.48699295815632</v>
+        <v>0.206599546062969</v>
       </c>
       <c r="D37" t="n">
-        <v>1.31706547033442</v>
+        <v>0.0946495589522645</v>
       </c>
       <c r="E37" t="n">
-        <v>0.22712511938873</v>
+        <v>0.0223495702005731</v>
       </c>
       <c r="F37" t="n">
-        <v>26.9520533922942</v>
+        <v>0.48519837857757</v>
       </c>
       <c r="G37" t="n">
         <v>71.4086471408647</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I37"/>
     </row>
@@ -1694,25 +1694,25 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C38" t="n">
-        <v>0.196877299968458</v>
+        <v>4545.88371359479</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0946495589522645</v>
+        <v>2032.30346007291</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0223495702005731</v>
+        <v>942.322706571243</v>
       </c>
       <c r="F38" t="n">
-        <v>0.48519837857757</v>
+        <v>4925.2118145446</v>
       </c>
       <c r="G38" t="n">
         <v>74.7899159663868</v>
       </c>
       <c r="H38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I38"/>
     </row>
@@ -1721,7 +1721,7 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C39" t="n">
         <v>254.011144990012</v>
@@ -1739,7 +1739,7 @@
         <v>74.7899159663868</v>
       </c>
       <c r="H39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I39"/>
     </row>
@@ -1748,25 +1748,25 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C40" t="n">
-        <v>4545.88371359479</v>
+        <v>7.32835663968037</v>
       </c>
       <c r="D40" t="n">
-        <v>2032.30346007291</v>
+        <v>2.93832418726495</v>
       </c>
       <c r="E40" t="n">
-        <v>942.322706571243</v>
+        <v>0.505013069090625</v>
       </c>
       <c r="F40" t="n">
-        <v>4925.2118145446</v>
+        <v>82.9367697861274</v>
       </c>
       <c r="G40" t="n">
         <v>74.7899159663868</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I40"/>
     </row>
@@ -1778,22 +1778,22 @@
         <v>29</v>
       </c>
       <c r="C41" t="n">
-        <v>7.32835663968037</v>
+        <v>4.00063084849122</v>
       </c>
       <c r="D41" t="n">
-        <v>2.93832418726495</v>
+        <v>1.31706547033442</v>
       </c>
       <c r="E41" t="n">
-        <v>0.505013069090625</v>
+        <v>0.22712511938873</v>
       </c>
       <c r="F41" t="n">
-        <v>82.9367697861274</v>
+        <v>26.9520533922942</v>
       </c>
       <c r="G41" t="n">
         <v>74.7899159663868</v>
       </c>
       <c r="H41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I41"/>
     </row>
@@ -1805,22 +1805,22 @@
         <v>30</v>
       </c>
       <c r="C42" t="n">
-        <v>4.00063084849122</v>
+        <v>0.196877299968458</v>
       </c>
       <c r="D42" t="n">
-        <v>1.31706547033442</v>
+        <v>0.0946495589522645</v>
       </c>
       <c r="E42" t="n">
-        <v>0.22712511938873</v>
+        <v>0.0223495702005731</v>
       </c>
       <c r="F42" t="n">
-        <v>26.9520533922942</v>
+        <v>0.48519837857757</v>
       </c>
       <c r="G42" t="n">
         <v>74.7899159663868</v>
       </c>
       <c r="H42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I42"/>
     </row>
@@ -1829,25 +1829,25 @@
         <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C43" t="n">
-        <v>0.236440841536383</v>
+        <v>23750.9361127196</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0946495589522645</v>
+        <v>10990.6338675585</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0223495702005731</v>
+        <v>3203.73495445673</v>
       </c>
       <c r="F43" t="n">
-        <v>0.48519837857757</v>
+        <v>30190.3374233129</v>
       </c>
       <c r="G43" t="n">
         <v>74.31906614786</v>
       </c>
       <c r="H43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I43"/>
     </row>
@@ -1859,22 +1859,22 @@
         <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>17.5690021231423</v>
+        <v>4537.06330824165</v>
       </c>
       <c r="D44" t="n">
-        <v>5.52593235210105</v>
+        <v>2032.30346007291</v>
       </c>
       <c r="E44" t="n">
-        <v>2.16770356458113</v>
+        <v>942.322706571243</v>
       </c>
       <c r="F44" t="n">
-        <v>20.2263865448408</v>
+        <v>4925.2118145446</v>
       </c>
       <c r="G44" t="n">
         <v>74.31906614786</v>
       </c>
       <c r="H44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I44"/>
     </row>
@@ -1883,7 +1883,7 @@
         <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C45" t="n">
         <v>257.488901756418</v>
@@ -1901,7 +1901,7 @@
         <v>74.31906614786</v>
       </c>
       <c r="H45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I45"/>
     </row>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C46" t="n">
-        <v>4537.06330824165</v>
+        <v>128.459756803706</v>
       </c>
       <c r="D46" t="n">
-        <v>2032.30346007291</v>
+        <v>53.6194671067111</v>
       </c>
       <c r="E46" t="n">
-        <v>942.322706571243</v>
+        <v>17.2797769119108</v>
       </c>
       <c r="F46" t="n">
-        <v>4925.2118145446</v>
+        <v>161.07593729738</v>
       </c>
       <c r="G46" t="n">
         <v>74.31906614786</v>
       </c>
       <c r="H46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I46"/>
     </row>
@@ -1937,25 +1937,25 @@
         <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C47" t="n">
-        <v>6.15711252653928</v>
+        <v>17.5690021231423</v>
       </c>
       <c r="D47" t="n">
-        <v>2.93832418726495</v>
+        <v>5.52593235210105</v>
       </c>
       <c r="E47" t="n">
-        <v>0.505013069090625</v>
+        <v>2.16770356458113</v>
       </c>
       <c r="F47" t="n">
-        <v>82.9367697861274</v>
+        <v>20.2263865448408</v>
       </c>
       <c r="G47" t="n">
         <v>74.31906614786</v>
       </c>
       <c r="H47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I47"/>
     </row>
@@ -1964,25 +1964,25 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C48" t="n">
-        <v>23750.9361127196</v>
+        <v>6.15711252653928</v>
       </c>
       <c r="D48" t="n">
-        <v>10990.6338675585</v>
+        <v>2.93832418726495</v>
       </c>
       <c r="E48" t="n">
-        <v>3203.73495445673</v>
+        <v>0.505013069090625</v>
       </c>
       <c r="F48" t="n">
-        <v>30190.3374233129</v>
+        <v>82.9367697861274</v>
       </c>
       <c r="G48" t="n">
         <v>74.31906614786</v>
       </c>
       <c r="H48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I48"/>
     </row>
@@ -1991,7 +1991,7 @@
         <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" t="n">
         <v>5.45261532522679</v>
@@ -2009,7 +2009,7 @@
         <v>74.31906614786</v>
       </c>
       <c r="H49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I49"/>
     </row>
@@ -2018,25 +2018,25 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
-        <v>128.459756803706</v>
+        <v>0.236440841536383</v>
       </c>
       <c r="D50" t="n">
-        <v>53.6194671067111</v>
+        <v>0.0946495589522645</v>
       </c>
       <c r="E50" t="n">
-        <v>17.2797769119108</v>
+        <v>0.0223495702005731</v>
       </c>
       <c r="F50" t="n">
-        <v>161.07593729738</v>
+        <v>0.48519837857757</v>
       </c>
       <c r="G50" t="n">
         <v>74.31906614786</v>
       </c>
       <c r="H50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I50"/>
     </row>
@@ -2045,25 +2045,25 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C51" t="n">
-        <v>0.263654329859863</v>
+        <v>22364.3145885735</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0946495589522645</v>
+        <v>10990.6338675585</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0223495702005731</v>
+        <v>3203.73495445673</v>
       </c>
       <c r="F51" t="n">
-        <v>0.48519837857757</v>
+        <v>30190.3374233129</v>
       </c>
       <c r="G51" t="n">
         <v>68.3760683760684</v>
       </c>
       <c r="H51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I51"/>
     </row>
@@ -2075,22 +2075,22 @@
         <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>16.7490118577075</v>
+        <v>4104.36579231046</v>
       </c>
       <c r="D52" t="n">
-        <v>5.52593235210105</v>
+        <v>2032.30346007291</v>
       </c>
       <c r="E52" t="n">
-        <v>2.16770356458113</v>
+        <v>942.322706571243</v>
       </c>
       <c r="F52" t="n">
-        <v>20.2263865448408</v>
+        <v>4925.2118145446</v>
       </c>
       <c r="G52" t="n">
         <v>68.3760683760684</v>
       </c>
       <c r="H52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I52"/>
     </row>
@@ -2099,7 +2099,7 @@
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" t="n">
         <v>127.479338842975</v>
@@ -2117,7 +2117,7 @@
         <v>68.3760683760684</v>
       </c>
       <c r="H53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I53"/>
     </row>
@@ -2129,22 +2129,22 @@
         <v>12</v>
       </c>
       <c r="C54" t="n">
-        <v>4104.36579231046</v>
+        <v>16.7490118577075</v>
       </c>
       <c r="D54" t="n">
-        <v>2032.30346007291</v>
+        <v>5.52593235210105</v>
       </c>
       <c r="E54" t="n">
-        <v>942.322706571243</v>
+        <v>2.16770356458113</v>
       </c>
       <c r="F54" t="n">
-        <v>4925.2118145446</v>
+        <v>20.2263865448408</v>
       </c>
       <c r="G54" t="n">
         <v>68.3760683760684</v>
       </c>
       <c r="H54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I54"/>
     </row>
@@ -2153,7 +2153,7 @@
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" t="n">
         <v>5.64588573481854</v>
@@ -2171,7 +2171,7 @@
         <v>68.3760683760684</v>
       </c>
       <c r="H55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I55"/>
     </row>
@@ -2180,25 +2180,25 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C56" t="n">
-        <v>22364.3145885735</v>
+        <v>6.87657204455623</v>
       </c>
       <c r="D56" t="n">
-        <v>10990.6338675585</v>
+        <v>1.31706547033442</v>
       </c>
       <c r="E56" t="n">
-        <v>3203.73495445673</v>
+        <v>0.22712511938873</v>
       </c>
       <c r="F56" t="n">
-        <v>30190.3374233129</v>
+        <v>26.9520533922942</v>
       </c>
       <c r="G56" t="n">
         <v>68.3760683760684</v>
       </c>
       <c r="H56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I56"/>
     </row>
@@ -2210,22 +2210,22 @@
         <v>30</v>
       </c>
       <c r="C57" t="n">
-        <v>6.87657204455623</v>
+        <v>0.263654329859863</v>
       </c>
       <c r="D57" t="n">
-        <v>1.31706547033442</v>
+        <v>0.0946495589522645</v>
       </c>
       <c r="E57" t="n">
-        <v>0.22712511938873</v>
+        <v>0.0223495702005731</v>
       </c>
       <c r="F57" t="n">
-        <v>26.9520533922942</v>
+        <v>0.48519837857757</v>
       </c>
       <c r="G57" t="n">
         <v>68.3760683760684</v>
       </c>
       <c r="H57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I57"/>
     </row>
@@ -2234,7 +2234,7 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C58" t="n">
         <v>3823.96022228722</v>
@@ -2252,7 +2252,7 @@
         <v>83.1460674157302</v>
       </c>
       <c r="H58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I58"/>
     </row>
@@ -2261,7 +2261,7 @@
         <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" t="n">
         <v>3.43667739105002</v>
@@ -2279,7 +2279,7 @@
         <v>83.1460674157302</v>
       </c>
       <c r="H59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I59"/>
     </row>
@@ -2288,25 +2288,25 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C60" t="n">
-        <v>0.354556228601528</v>
+        <v>23420.025678167</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0946495589522645</v>
+        <v>10990.6338675585</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0223495702005731</v>
+        <v>3203.73495445673</v>
       </c>
       <c r="F60" t="n">
-        <v>0.48519837857757</v>
+        <v>30190.3374233129</v>
       </c>
       <c r="G60" t="n">
         <v>70.9497206703908</v>
       </c>
       <c r="H60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I60"/>
     </row>
@@ -2315,7 +2315,7 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C61" t="n">
         <v>4007.78904398209</v>
@@ -2333,7 +2333,7 @@
         <v>70.9497206703908</v>
       </c>
       <c r="H61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I61"/>
     </row>
@@ -2342,25 +2342,25 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C62" t="n">
-        <v>23420.025678167</v>
+        <v>3.8813537002897</v>
       </c>
       <c r="D62" t="n">
-        <v>10990.6338675585</v>
+        <v>1.31706547033442</v>
       </c>
       <c r="E62" t="n">
-        <v>3203.73495445673</v>
+        <v>0.22712511938873</v>
       </c>
       <c r="F62" t="n">
-        <v>30190.3374233129</v>
+        <v>26.9520533922942</v>
       </c>
       <c r="G62" t="n">
         <v>70.9497206703908</v>
       </c>
       <c r="H62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I62"/>
     </row>
@@ -2372,22 +2372,22 @@
         <v>30</v>
       </c>
       <c r="C63" t="n">
-        <v>3.8813537002897</v>
+        <v>0.354556228601528</v>
       </c>
       <c r="D63" t="n">
-        <v>1.31706547033442</v>
+        <v>0.0946495589522645</v>
       </c>
       <c r="E63" t="n">
-        <v>0.22712511938873</v>
+        <v>0.0223495702005731</v>
       </c>
       <c r="F63" t="n">
-        <v>26.9520533922942</v>
+        <v>0.48519837857757</v>
       </c>
       <c r="G63" t="n">
         <v>70.9497206703908</v>
       </c>
       <c r="H63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I63"/>
     </row>
@@ -2396,25 +2396,25 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C64" t="n">
-        <v>13.4583757537787</v>
+        <v>23555.1726838437</v>
       </c>
       <c r="D64" t="n">
-        <v>5.52593235210105</v>
+        <v>10990.6338675585</v>
       </c>
       <c r="E64" t="n">
-        <v>2.16770356458113</v>
+        <v>3203.73495445673</v>
       </c>
       <c r="F64" t="n">
-        <v>20.2263865448408</v>
+        <v>30190.3374233129</v>
       </c>
       <c r="G64" t="n">
         <v>69.6269982238011</v>
       </c>
       <c r="H64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I64"/>
     </row>
@@ -2423,25 +2423,25 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C65" t="n">
-        <v>116.598793954108</v>
+        <v>4393.72307933276</v>
       </c>
       <c r="D65" t="n">
-        <v>56.173040302678</v>
+        <v>2032.30346007291</v>
       </c>
       <c r="E65" t="n">
-        <v>6.58423803779654</v>
+        <v>942.322706571243</v>
       </c>
       <c r="F65" t="n">
-        <v>642.138642475816</v>
+        <v>4925.2118145446</v>
       </c>
       <c r="G65" t="n">
         <v>69.6269982238011</v>
       </c>
       <c r="H65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I65"/>
     </row>
@@ -2450,25 +2450,25 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>4393.72307933276</v>
+        <v>116.598793954108</v>
       </c>
       <c r="D66" t="n">
-        <v>2032.30346007291</v>
+        <v>56.173040302678</v>
       </c>
       <c r="E66" t="n">
-        <v>942.322706571243</v>
+        <v>6.58423803779654</v>
       </c>
       <c r="F66" t="n">
-        <v>4925.2118145446</v>
+        <v>642.138642475816</v>
       </c>
       <c r="G66" t="n">
         <v>69.6269982238011</v>
       </c>
       <c r="H66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I66"/>
     </row>
@@ -2477,25 +2477,25 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C67" t="n">
-        <v>23555.1726838437</v>
+        <v>153.563317409351</v>
       </c>
       <c r="D67" t="n">
-        <v>10990.6338675585</v>
+        <v>53.6194671067111</v>
       </c>
       <c r="E67" t="n">
-        <v>3203.73495445673</v>
+        <v>17.2797769119108</v>
       </c>
       <c r="F67" t="n">
-        <v>30190.3374233129</v>
+        <v>161.07593729738</v>
       </c>
       <c r="G67" t="n">
         <v>69.6269982238011</v>
       </c>
       <c r="H67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I67"/>
     </row>
@@ -2504,25 +2504,25 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C68" t="n">
-        <v>2.53347952071423</v>
+        <v>13.4583757537787</v>
       </c>
       <c r="D68" t="n">
-        <v>1.31706547033442</v>
+        <v>5.52593235210105</v>
       </c>
       <c r="E68" t="n">
-        <v>0.22712511938873</v>
+        <v>2.16770356458113</v>
       </c>
       <c r="F68" t="n">
-        <v>26.9520533922942</v>
+        <v>20.2263865448408</v>
       </c>
       <c r="G68" t="n">
         <v>69.6269982238011</v>
       </c>
       <c r="H68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I68"/>
     </row>
@@ -2531,25 +2531,25 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C69" t="n">
-        <v>153.563317409351</v>
+        <v>2.53347952071423</v>
       </c>
       <c r="D69" t="n">
-        <v>53.6194671067111</v>
+        <v>1.31706547033442</v>
       </c>
       <c r="E69" t="n">
-        <v>17.2797769119108</v>
+        <v>0.22712511938873</v>
       </c>
       <c r="F69" t="n">
-        <v>161.07593729738</v>
+        <v>26.9520533922942</v>
       </c>
       <c r="G69" t="n">
         <v>69.6269982238011</v>
       </c>
       <c r="H69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I69"/>
     </row>
@@ -2558,7 +2558,7 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C70" t="n">
         <v>330.240480961924</v>
@@ -2585,7 +2585,7 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71" t="n">
         <v>5.62324649298597</v>
@@ -2612,19 +2612,19 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>0.48519837857757</v>
+        <v>4122.67534700897</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0946495589522645</v>
+        <v>2032.30346007291</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0223495702005731</v>
+        <v>942.322706571243</v>
       </c>
       <c r="F72" t="n">
-        <v>0.48519837857757</v>
+        <v>4925.2118145446</v>
       </c>
       <c r="G72" t="n">
         <v>75.0377073906485</v>
@@ -2639,7 +2639,7 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C73" t="n">
         <v>516.863202718749</v>
@@ -2666,19 +2666,19 @@
         <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C74" t="n">
-        <v>4122.67534700897</v>
+        <v>9.38664373746059</v>
       </c>
       <c r="D74" t="n">
-        <v>2032.30346007291</v>
+        <v>2.93832418726495</v>
       </c>
       <c r="E74" t="n">
-        <v>942.322706571243</v>
+        <v>0.505013069090625</v>
       </c>
       <c r="F74" t="n">
-        <v>4925.2118145446</v>
+        <v>82.9367697861274</v>
       </c>
       <c r="G74" t="n">
         <v>75.0377073906485</v>
@@ -2696,16 +2696,16 @@
         <v>29</v>
       </c>
       <c r="C75" t="n">
-        <v>9.38664373746059</v>
+        <v>26.9520533922942</v>
       </c>
       <c r="D75" t="n">
-        <v>2.93832418726495</v>
+        <v>1.31706547033442</v>
       </c>
       <c r="E75" t="n">
-        <v>0.505013069090625</v>
+        <v>0.22712511938873</v>
       </c>
       <c r="F75" t="n">
-        <v>82.9367697861274</v>
+        <v>26.9520533922942</v>
       </c>
       <c r="G75" t="n">
         <v>75.0377073906485</v>
@@ -2723,16 +2723,16 @@
         <v>30</v>
       </c>
       <c r="C76" t="n">
-        <v>26.9520533922942</v>
+        <v>0.48519837857757</v>
       </c>
       <c r="D76" t="n">
-        <v>1.31706547033442</v>
+        <v>0.0946495589522645</v>
       </c>
       <c r="E76" t="n">
-        <v>0.22712511938873</v>
+        <v>0.0223495702005731</v>
       </c>
       <c r="F76" t="n">
-        <v>26.9520533922942</v>
+        <v>0.48519837857757</v>
       </c>
       <c r="G76" t="n">
         <v>75.0377073906485</v>
@@ -2747,7 +2747,7 @@
         <v>42</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C77" t="n">
         <v>2.22896281800391</v>
@@ -2801,19 +2801,19 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C79" t="n">
-        <v>141.854906179037</v>
+        <v>3855.24082705868</v>
       </c>
       <c r="D79" t="n">
-        <v>56.173040302678</v>
+        <v>2032.30346007291</v>
       </c>
       <c r="E79" t="n">
-        <v>6.58423803779654</v>
+        <v>942.322706571243</v>
       </c>
       <c r="F79" t="n">
-        <v>642.138642475816</v>
+        <v>4925.2118145446</v>
       </c>
       <c r="G79" t="n">
         <v>75.2332485156913</v>
@@ -2828,19 +2828,19 @@
         <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C80" t="n">
-        <v>3855.24082705868</v>
+        <v>141.854906179037</v>
       </c>
       <c r="D80" t="n">
-        <v>2032.30346007291</v>
+        <v>56.173040302678</v>
       </c>
       <c r="E80" t="n">
-        <v>942.322706571243</v>
+        <v>6.58423803779654</v>
       </c>
       <c r="F80" t="n">
-        <v>4925.2118145446</v>
+        <v>642.138642475816</v>
       </c>
       <c r="G80" t="n">
         <v>75.2332485156913</v>
@@ -2855,7 +2855,7 @@
         <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C81" t="n">
         <v>170.665023601654</v>
@@ -2882,7 +2882,7 @@
         <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C82" t="n">
         <v>147.095885016736</v>
@@ -2909,7 +2909,7 @@
         <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C83" t="n">
         <v>134.281375687433</v>
@@ -2936,19 +2936,19 @@
         <v>48</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C84" t="n">
-        <v>203.972962066182</v>
+        <v>3564.84059725585</v>
       </c>
       <c r="D84" t="n">
-        <v>56.173040302678</v>
+        <v>2032.30346007291</v>
       </c>
       <c r="E84" t="n">
-        <v>6.58423803779654</v>
+        <v>942.322706571243</v>
       </c>
       <c r="F84" t="n">
-        <v>642.138642475816</v>
+        <v>4925.2118145446</v>
       </c>
       <c r="G84" t="n">
         <v>72.3880597014925</v>
@@ -2963,19 +2963,19 @@
         <v>48</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C85" t="n">
-        <v>3564.84059725585</v>
+        <v>203.972962066182</v>
       </c>
       <c r="D85" t="n">
-        <v>2032.30346007291</v>
+        <v>56.173040302678</v>
       </c>
       <c r="E85" t="n">
-        <v>942.322706571243</v>
+        <v>6.58423803779654</v>
       </c>
       <c r="F85" t="n">
-        <v>4925.2118145446</v>
+        <v>642.138642475816</v>
       </c>
       <c r="G85" t="n">
         <v>72.3880597014925</v>
@@ -2990,7 +2990,7 @@
         <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C86" t="n">
         <v>136.219917824301</v>
@@ -3017,19 +3017,19 @@
         <v>50</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C87" t="n">
-        <v>0.164282752902156</v>
+        <v>117.488080431177</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0946495589522645</v>
+        <v>56.173040302678</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0223495702005731</v>
+        <v>6.58423803779654</v>
       </c>
       <c r="F87" t="n">
-        <v>0.48519837857757</v>
+        <v>642.138642475816</v>
       </c>
       <c r="G87" t="n">
         <v>73.9484396200814</v>
@@ -3044,7 +3044,7 @@
         <v>50</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C88" t="n">
         <v>13.3913764510779</v>
@@ -3071,19 +3071,19 @@
         <v>50</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C89" t="n">
-        <v>117.488080431177</v>
+        <v>2.57540422885572</v>
       </c>
       <c r="D89" t="n">
-        <v>56.173040302678</v>
+        <v>1.31706547033442</v>
       </c>
       <c r="E89" t="n">
-        <v>6.58423803779654</v>
+        <v>0.22712511938873</v>
       </c>
       <c r="F89" t="n">
-        <v>642.138642475816</v>
+        <v>26.9520533922942</v>
       </c>
       <c r="G89" t="n">
         <v>73.9484396200814</v>
@@ -3101,16 +3101,16 @@
         <v>30</v>
       </c>
       <c r="C90" t="n">
-        <v>2.57540422885572</v>
+        <v>0.164282752902156</v>
       </c>
       <c r="D90" t="n">
-        <v>1.31706547033442</v>
+        <v>0.0946495589522645</v>
       </c>
       <c r="E90" t="n">
-        <v>0.22712511938873</v>
+        <v>0.0223495702005731</v>
       </c>
       <c r="F90" t="n">
-        <v>26.9520533922942</v>
+        <v>0.48519837857757</v>
       </c>
       <c r="G90" t="n">
         <v>73.9484396200814</v>
@@ -3125,7 +3125,7 @@
         <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C91" t="n">
         <v>11.4613404072716</v>
@@ -3152,19 +3152,19 @@
         <v>52</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C92" t="n">
-        <v>2.3339483394834</v>
+        <v>118.115774907749</v>
       </c>
       <c r="D92" t="n">
-        <v>1.31706547033442</v>
+        <v>53.6194671067111</v>
       </c>
       <c r="E92" t="n">
-        <v>0.22712511938873</v>
+        <v>17.2797769119108</v>
       </c>
       <c r="F92" t="n">
-        <v>26.9520533922942</v>
+        <v>161.07593729738</v>
       </c>
       <c r="G92" t="n">
         <v>71.8498659517428</v>
@@ -3179,19 +3179,19 @@
         <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C93" t="n">
-        <v>118.115774907749</v>
+        <v>2.3339483394834</v>
       </c>
       <c r="D93" t="n">
-        <v>53.6194671067111</v>
+        <v>1.31706547033442</v>
       </c>
       <c r="E93" t="n">
-        <v>17.2797769119108</v>
+        <v>0.22712511938873</v>
       </c>
       <c r="F93" t="n">
-        <v>161.07593729738</v>
+        <v>26.9520533922942</v>
       </c>
       <c r="G93" t="n">
         <v>71.8498659517428</v>
@@ -3206,7 +3206,7 @@
         <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C94" t="n">
         <v>275.041641275645</v>
@@ -3233,7 +3233,7 @@
         <v>54</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C95" t="n">
         <v>288.907546024681</v>
@@ -3260,19 +3260,19 @@
         <v>55</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C96" t="n">
-        <v>4401.66044251697</v>
+        <v>26202.7225635466</v>
       </c>
       <c r="D96" t="n">
-        <v>2032.30346007291</v>
+        <v>10990.6338675585</v>
       </c>
       <c r="E96" t="n">
-        <v>942.322706571243</v>
+        <v>3203.73495445673</v>
       </c>
       <c r="F96" t="n">
-        <v>4925.2118145446</v>
+        <v>30190.3374233129</v>
       </c>
       <c r="G96" t="n">
         <v>82.5692137320044</v>
@@ -3287,19 +3287,19 @@
         <v>55</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C97" t="n">
-        <v>26202.7225635466</v>
+        <v>4401.66044251697</v>
       </c>
       <c r="D97" t="n">
-        <v>10990.6338675585</v>
+        <v>2032.30346007291</v>
       </c>
       <c r="E97" t="n">
-        <v>3203.73495445673</v>
+        <v>942.322706571243</v>
       </c>
       <c r="F97" t="n">
-        <v>30190.3374233129</v>
+        <v>4925.2118145446</v>
       </c>
       <c r="G97" t="n">
         <v>82.5692137320044</v>
@@ -3314,7 +3314,7 @@
         <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C98" t="n">
         <v>642.138642475816</v>
@@ -3341,7 +3341,7 @@
         <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C99" t="n">
         <v>6.87392124593586</v>
@@ -3368,19 +3368,19 @@
         <v>57</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C100" t="n">
-        <v>4108.53688727513</v>
+        <v>23354.8399075755</v>
       </c>
       <c r="D100" t="n">
-        <v>2032.30346007291</v>
+        <v>10990.6338675585</v>
       </c>
       <c r="E100" t="n">
-        <v>942.322706571243</v>
+        <v>3203.73495445673</v>
       </c>
       <c r="F100" t="n">
-        <v>4925.2118145446</v>
+        <v>30190.3374233129</v>
       </c>
       <c r="G100" t="n">
         <v>80.054751662104</v>
@@ -3395,19 +3395,19 @@
         <v>57</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C101" t="n">
-        <v>23354.8399075755</v>
+        <v>4108.53688727513</v>
       </c>
       <c r="D101" t="n">
-        <v>10990.6338675585</v>
+        <v>2032.30346007291</v>
       </c>
       <c r="E101" t="n">
-        <v>3203.73495445673</v>
+        <v>942.322706571243</v>
       </c>
       <c r="F101" t="n">
-        <v>30190.3374233129</v>
+        <v>4925.2118145446</v>
       </c>
       <c r="G101" t="n">
         <v>80.054751662104</v>
@@ -3422,7 +3422,7 @@
         <v>58</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C102" t="n">
         <v>253.990206205287</v>
@@ -3440,7 +3440,7 @@
         <v>74.7271933653427</v>
       </c>
       <c r="H102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I102"/>
     </row>
@@ -3449,7 +3449,7 @@
         <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C103" t="n">
         <v>155.495084269663</v>
@@ -3467,7 +3467,7 @@
         <v>73.5762855928602</v>
       </c>
       <c r="H103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I103"/>
     </row>
@@ -3476,25 +3476,25 @@
         <v>60</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C104" t="n">
-        <v>13.9191864301518</v>
+        <v>273.285331677212</v>
       </c>
       <c r="D104" t="n">
-        <v>5.52593235210105</v>
+        <v>56.173040302678</v>
       </c>
       <c r="E104" t="n">
-        <v>2.16770356458113</v>
+        <v>6.58423803779654</v>
       </c>
       <c r="F104" t="n">
-        <v>20.2263865448408</v>
+        <v>642.138642475816</v>
       </c>
       <c r="G104" t="n">
         <v>73.6037903464614</v>
       </c>
       <c r="H104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I104"/>
     </row>
@@ -3503,25 +3503,25 @@
         <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C105" t="n">
-        <v>273.285331677212</v>
+        <v>13.9191864301518</v>
       </c>
       <c r="D105" t="n">
-        <v>56.173040302678</v>
+        <v>5.52593235210105</v>
       </c>
       <c r="E105" t="n">
-        <v>6.58423803779654</v>
+        <v>2.16770356458113</v>
       </c>
       <c r="F105" t="n">
-        <v>642.138642475816</v>
+        <v>20.2263865448408</v>
       </c>
       <c r="G105" t="n">
         <v>73.6037903464614</v>
       </c>
       <c r="H105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I105"/>
     </row>
@@ -3530,7 +3530,7 @@
         <v>60</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C106" t="n">
         <v>82.9367697861274</v>
@@ -3548,7 +3548,7 @@
         <v>73.6037903464614</v>
       </c>
       <c r="H106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I106"/>
     </row>
@@ -3575,7 +3575,7 @@
         <v>74.4909783148485</v>
       </c>
       <c r="H107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I107"/>
     </row>
@@ -3602,7 +3602,7 @@
         <v>73.2123045890066</v>
       </c>
       <c r="H108" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I108"/>
     </row>
@@ -3611,25 +3611,25 @@
         <v>64</v>
       </c>
       <c r="B109" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C109" t="n">
-        <v>11.1586861255176</v>
+        <v>56290.0997065091</v>
       </c>
       <c r="D109" t="n">
-        <v>4.45532071226407</v>
+        <v>19800.1087969763</v>
       </c>
       <c r="E109" t="n">
-        <v>0.612445844820796</v>
+        <v>2744.50339910463</v>
       </c>
       <c r="F109" t="n">
-        <v>29.8980160943351</v>
+        <v>56290.0997065091</v>
       </c>
       <c r="G109" t="n">
         <v>75.9294068504595</v>
       </c>
       <c r="H109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I109"/>
     </row>
@@ -3638,25 +3638,25 @@
         <v>64</v>
       </c>
       <c r="B110" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C110" t="n">
-        <v>56290.0997065091</v>
+        <v>35003.5962690468</v>
       </c>
       <c r="D110" t="n">
-        <v>19800.1087969763</v>
+        <v>15881.0066604049</v>
       </c>
       <c r="E110" t="n">
-        <v>2744.50339910463</v>
+        <v>5655.3245730393</v>
       </c>
       <c r="F110" t="n">
-        <v>56290.0997065091</v>
+        <v>35003.5962690468</v>
       </c>
       <c r="G110" t="n">
         <v>75.9294068504595</v>
       </c>
       <c r="H110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I110"/>
     </row>
@@ -3665,7 +3665,7 @@
         <v>64</v>
       </c>
       <c r="B111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C111" t="n">
         <v>5.60447071121296</v>
@@ -3683,7 +3683,7 @@
         <v>75.9294068504595</v>
       </c>
       <c r="H111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I111"/>
     </row>
@@ -3692,25 +3692,25 @@
         <v>64</v>
       </c>
       <c r="B112" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C112" t="n">
-        <v>35003.5962690468</v>
+        <v>11.1586861255176</v>
       </c>
       <c r="D112" t="n">
-        <v>15881.0066604049</v>
+        <v>4.45532071226407</v>
       </c>
       <c r="E112" t="n">
-        <v>5655.3245730393</v>
+        <v>0.612445844820796</v>
       </c>
       <c r="F112" t="n">
-        <v>35003.5962690468</v>
+        <v>29.8980160943351</v>
       </c>
       <c r="G112" t="n">
         <v>75.9294068504595</v>
       </c>
       <c r="H112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I112"/>
     </row>
@@ -3737,7 +3737,7 @@
         <v>72.2289499928765</v>
       </c>
       <c r="H113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I113"/>
     </row>
@@ -3746,19 +3746,19 @@
         <v>67</v>
       </c>
       <c r="B114" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C114" t="n">
-        <v>10.7075950355164</v>
+        <v>39659.6752790571</v>
       </c>
       <c r="D114" t="n">
-        <v>4.45532071226407</v>
+        <v>19800.1087969763</v>
       </c>
       <c r="E114" t="n">
-        <v>0.612445844820796</v>
+        <v>2744.50339910463</v>
       </c>
       <c r="F114" t="n">
-        <v>29.8980160943351</v>
+        <v>56290.0997065091</v>
       </c>
       <c r="G114" t="n">
         <v>81.416702229809</v>
@@ -3773,19 +3773,19 @@
         <v>67</v>
       </c>
       <c r="B115" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C115" t="n">
-        <v>39659.6752790571</v>
+        <v>29034.2947467021</v>
       </c>
       <c r="D115" t="n">
-        <v>19800.1087969763</v>
+        <v>15881.0066604049</v>
       </c>
       <c r="E115" t="n">
-        <v>2744.50339910463</v>
+        <v>5655.3245730393</v>
       </c>
       <c r="F115" t="n">
-        <v>56290.0997065091</v>
+        <v>35003.5962690468</v>
       </c>
       <c r="G115" t="n">
         <v>81.416702229809</v>
@@ -3800,19 +3800,19 @@
         <v>67</v>
       </c>
       <c r="B116" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C116" t="n">
-        <v>29034.2947467021</v>
+        <v>10.7075950355164</v>
       </c>
       <c r="D116" t="n">
-        <v>15881.0066604049</v>
+        <v>4.45532071226407</v>
       </c>
       <c r="E116" t="n">
-        <v>5655.3245730393</v>
+        <v>0.612445844820796</v>
       </c>
       <c r="F116" t="n">
-        <v>35003.5962690468</v>
+        <v>29.8980160943351</v>
       </c>
       <c r="G116" t="n">
         <v>81.416702229809</v>
@@ -3827,19 +3827,19 @@
         <v>68</v>
       </c>
       <c r="B117" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C117" t="n">
-        <v>11.3845733468655</v>
+        <v>18594.6736669529</v>
       </c>
       <c r="D117" t="n">
-        <v>4.45532071226407</v>
+        <v>9810.87492145982</v>
       </c>
       <c r="E117" t="n">
-        <v>0.612445844820796</v>
+        <v>4247.13723173853</v>
       </c>
       <c r="F117" t="n">
-        <v>29.8980160943351</v>
+        <v>19963.7718355816</v>
       </c>
       <c r="G117" t="n">
         <v>81.1427961693387</v>
@@ -3854,19 +3854,19 @@
         <v>68</v>
       </c>
       <c r="B118" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C118" t="n">
-        <v>18594.6736669529</v>
+        <v>5.43953470216254</v>
       </c>
       <c r="D118" t="n">
-        <v>9810.87492145982</v>
+        <v>2.73299221888054</v>
       </c>
       <c r="E118" t="n">
-        <v>4247.13723173853</v>
+        <v>1.25943300020396</v>
       </c>
       <c r="F118" t="n">
-        <v>19963.7718355816</v>
+        <v>5.85970749825892</v>
       </c>
       <c r="G118" t="n">
         <v>81.1427961693387</v>
@@ -3881,19 +3881,19 @@
         <v>68</v>
       </c>
       <c r="B119" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C119" t="n">
-        <v>5.43953470216254</v>
+        <v>11.3845733468655</v>
       </c>
       <c r="D119" t="n">
-        <v>2.73299221888054</v>
+        <v>4.45532071226407</v>
       </c>
       <c r="E119" t="n">
-        <v>1.25943300020396</v>
+        <v>0.612445844820796</v>
       </c>
       <c r="F119" t="n">
-        <v>5.85970749825892</v>
+        <v>29.8980160943351</v>
       </c>
       <c r="G119" t="n">
         <v>81.1427961693387</v>
@@ -3908,19 +3908,19 @@
         <v>71</v>
       </c>
       <c r="B120" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C120" t="n">
-        <v>14.5656758585015</v>
+        <v>19963.7718355816</v>
       </c>
       <c r="D120" t="n">
-        <v>4.45532071226407</v>
+        <v>9810.87492145982</v>
       </c>
       <c r="E120" t="n">
-        <v>0.612445844820796</v>
+        <v>4247.13723173853</v>
       </c>
       <c r="F120" t="n">
-        <v>29.8980160943351</v>
+        <v>19963.7718355816</v>
       </c>
       <c r="G120" t="n">
         <v>82.4933357538003</v>
@@ -3935,19 +3935,19 @@
         <v>71</v>
       </c>
       <c r="B121" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C121" t="n">
-        <v>19963.7718355816</v>
+        <v>14.5656758585015</v>
       </c>
       <c r="D121" t="n">
-        <v>9810.87492145982</v>
+        <v>4.45532071226407</v>
       </c>
       <c r="E121" t="n">
-        <v>4247.13723173853</v>
+        <v>0.612445844820796</v>
       </c>
       <c r="F121" t="n">
-        <v>19963.7718355816</v>
+        <v>29.8980160943351</v>
       </c>
       <c r="G121" t="n">
         <v>82.4933357538003</v>
@@ -4250,7 +4250,7 @@
         <v>79.5024808904385</v>
       </c>
       <c r="H132" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I132" t="s">
         <v>83</v>
@@ -4279,7 +4279,7 @@
         <v>79.3056807935077</v>
       </c>
       <c r="H133" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I133"/>
     </row>
@@ -4288,7 +4288,7 @@
         <v>85</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C134" t="n">
         <v>180.352397458117</v>
@@ -4306,7 +4306,7 @@
         <v>79.669209274224</v>
       </c>
       <c r="H134" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I134"/>
     </row>
@@ -4333,7 +4333,7 @@
         <v>79.1716481639624</v>
       </c>
       <c r="H135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I135"/>
     </row>
@@ -4342,7 +4342,7 @@
         <v>87</v>
       </c>
       <c r="B136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C136" t="n">
         <v>15.4566744730679</v>
@@ -4369,19 +4369,19 @@
         <v>88</v>
       </c>
       <c r="B137" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C137" t="n">
-        <v>12.6798957706955</v>
+        <v>54959.5670475045</v>
       </c>
       <c r="D137" t="n">
-        <v>4.45532071226407</v>
+        <v>19800.1087969763</v>
       </c>
       <c r="E137" t="n">
-        <v>0.612445844820796</v>
+        <v>2744.50339910463</v>
       </c>
       <c r="F137" t="n">
-        <v>29.8980160943351</v>
+        <v>56290.0997065091</v>
       </c>
       <c r="G137" t="n">
         <v>75.6524753282766</v>
@@ -4396,19 +4396,19 @@
         <v>88</v>
       </c>
       <c r="B138" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C138" t="n">
-        <v>54959.5670475045</v>
+        <v>34984.7324113049</v>
       </c>
       <c r="D138" t="n">
-        <v>19800.1087969763</v>
+        <v>15881.0066604049</v>
       </c>
       <c r="E138" t="n">
-        <v>2744.50339910463</v>
+        <v>5655.3245730393</v>
       </c>
       <c r="F138" t="n">
-        <v>56290.0997065091</v>
+        <v>35003.5962690468</v>
       </c>
       <c r="G138" t="n">
         <v>75.6524753282766</v>
@@ -4423,7 +4423,7 @@
         <v>88</v>
       </c>
       <c r="B139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C139" t="n">
         <v>8.7773100821808</v>
@@ -4450,19 +4450,19 @@
         <v>88</v>
       </c>
       <c r="B140" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C140" t="n">
-        <v>34984.7324113049</v>
+        <v>12.6798957706955</v>
       </c>
       <c r="D140" t="n">
-        <v>15881.0066604049</v>
+        <v>4.45532071226407</v>
       </c>
       <c r="E140" t="n">
-        <v>5655.3245730393</v>
+        <v>0.612445844820796</v>
       </c>
       <c r="F140" t="n">
-        <v>35003.5962690468</v>
+        <v>29.8980160943351</v>
       </c>
       <c r="G140" t="n">
         <v>75.6524753282766</v>
@@ -4477,19 +4477,19 @@
         <v>89</v>
       </c>
       <c r="B141" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C141" t="n">
-        <v>17.8060027505865</v>
+        <v>12.2320200631017</v>
       </c>
       <c r="D141" t="n">
-        <v>4.45532071226407</v>
+        <v>2.93832418726495</v>
       </c>
       <c r="E141" t="n">
-        <v>0.612445844820796</v>
+        <v>0.505013069090625</v>
       </c>
       <c r="F141" t="n">
-        <v>29.8980160943351</v>
+        <v>82.9367697861274</v>
       </c>
       <c r="G141" t="n">
         <v>75.937998935604</v>
@@ -4504,19 +4504,19 @@
         <v>89</v>
       </c>
       <c r="B142" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C142" t="n">
-        <v>12.2320200631017</v>
+        <v>17.8060027505865</v>
       </c>
       <c r="D142" t="n">
-        <v>2.93832418726495</v>
+        <v>4.45532071226407</v>
       </c>
       <c r="E142" t="n">
-        <v>0.505013069090625</v>
+        <v>0.612445844820796</v>
       </c>
       <c r="F142" t="n">
-        <v>82.9367697861274</v>
+        <v>29.8980160943351</v>
       </c>
       <c r="G142" t="n">
         <v>75.937998935604</v>
@@ -4531,19 +4531,19 @@
         <v>90</v>
       </c>
       <c r="B143" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C143" t="n">
-        <v>9.46034341782502</v>
+        <v>45204.5278004906</v>
       </c>
       <c r="D143" t="n">
-        <v>4.45532071226407</v>
+        <v>19800.1087969763</v>
       </c>
       <c r="E143" t="n">
-        <v>0.612445844820796</v>
+        <v>2744.50339910463</v>
       </c>
       <c r="F143" t="n">
-        <v>29.8980160943351</v>
+        <v>56290.0997065091</v>
       </c>
       <c r="G143" t="n">
         <v>78.2570310366797</v>
@@ -4558,19 +4558,19 @@
         <v>90</v>
       </c>
       <c r="B144" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C144" t="n">
-        <v>45204.5278004906</v>
+        <v>30070.102207686</v>
       </c>
       <c r="D144" t="n">
-        <v>19800.1087969763</v>
+        <v>15881.0066604049</v>
       </c>
       <c r="E144" t="n">
-        <v>2744.50339910463</v>
+        <v>5655.3245730393</v>
       </c>
       <c r="F144" t="n">
-        <v>56290.0997065091</v>
+        <v>35003.5962690468</v>
       </c>
       <c r="G144" t="n">
         <v>78.2570310366797</v>
@@ -4585,7 +4585,7 @@
         <v>90</v>
       </c>
       <c r="B145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C145" t="n">
         <v>9.44194603434178</v>
@@ -4612,19 +4612,19 @@
         <v>90</v>
       </c>
       <c r="B146" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C146" t="n">
-        <v>30070.102207686</v>
+        <v>9.46034341782502</v>
       </c>
       <c r="D146" t="n">
-        <v>15881.0066604049</v>
+        <v>4.45532071226407</v>
       </c>
       <c r="E146" t="n">
-        <v>5655.3245730393</v>
+        <v>0.612445844820796</v>
       </c>
       <c r="F146" t="n">
-        <v>35003.5962690468</v>
+        <v>29.8980160943351</v>
       </c>
       <c r="G146" t="n">
         <v>78.2570310366797</v>
@@ -4666,19 +4666,19 @@
         <v>92</v>
       </c>
       <c r="B148" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C148" t="n">
-        <v>29.3657331136738</v>
+        <v>19.8002471169687</v>
       </c>
       <c r="D148" t="n">
-        <v>4.45532071226407</v>
+        <v>2.93832418726495</v>
       </c>
       <c r="E148" t="n">
-        <v>0.612445844820796</v>
+        <v>0.505013069090625</v>
       </c>
       <c r="F148" t="n">
-        <v>29.8980160943351</v>
+        <v>82.9367697861274</v>
       </c>
       <c r="G148" t="n">
         <v>71.7482428115016</v>
@@ -4693,19 +4693,19 @@
         <v>92</v>
       </c>
       <c r="B149" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C149" t="n">
-        <v>19.8002471169687</v>
+        <v>29.3657331136738</v>
       </c>
       <c r="D149" t="n">
-        <v>2.93832418726495</v>
+        <v>4.45532071226407</v>
       </c>
       <c r="E149" t="n">
-        <v>0.505013069090625</v>
+        <v>0.612445844820796</v>
       </c>
       <c r="F149" t="n">
-        <v>82.9367697861274</v>
+        <v>29.8980160943351</v>
       </c>
       <c r="G149" t="n">
         <v>71.7482428115016</v>
@@ -4720,19 +4720,19 @@
         <v>93</v>
       </c>
       <c r="B150" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C150" t="n">
-        <v>22.2542553611627</v>
+        <v>15.8011137000908</v>
       </c>
       <c r="D150" t="n">
-        <v>4.45532071226407</v>
+        <v>2.93832418726495</v>
       </c>
       <c r="E150" t="n">
-        <v>0.612445844820796</v>
+        <v>0.505013069090625</v>
       </c>
       <c r="F150" t="n">
-        <v>29.8980160943351</v>
+        <v>82.9367697861274</v>
       </c>
       <c r="G150" t="n">
         <v>75.6975514125719</v>
@@ -4747,19 +4747,19 @@
         <v>93</v>
       </c>
       <c r="B151" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C151" t="n">
-        <v>15.8011137000908</v>
+        <v>5.27822755815331</v>
       </c>
       <c r="D151" t="n">
-        <v>2.93832418726495</v>
+        <v>2.73299221888054</v>
       </c>
       <c r="E151" t="n">
-        <v>0.505013069090625</v>
+        <v>1.25943300020396</v>
       </c>
       <c r="F151" t="n">
-        <v>82.9367697861274</v>
+        <v>5.85970749825892</v>
       </c>
       <c r="G151" t="n">
         <v>75.6975514125719</v>
@@ -4774,19 +4774,19 @@
         <v>93</v>
       </c>
       <c r="B152" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C152" t="n">
-        <v>5.27822755815331</v>
+        <v>22.2542553611627</v>
       </c>
       <c r="D152" t="n">
-        <v>2.73299221888054</v>
+        <v>4.45532071226407</v>
       </c>
       <c r="E152" t="n">
-        <v>1.25943300020396</v>
+        <v>0.612445844820796</v>
       </c>
       <c r="F152" t="n">
-        <v>5.85970749825892</v>
+        <v>29.8980160943351</v>
       </c>
       <c r="G152" t="n">
         <v>75.6975514125719</v>
@@ -5017,7 +5017,7 @@
         <v>102</v>
       </c>
       <c r="B161" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C161" t="n">
         <v>0.174425298384311</v>
@@ -5035,7 +5035,7 @@
         <v>75.5517826825127</v>
       </c>
       <c r="H161" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I161"/>
     </row>
@@ -5062,7 +5062,7 @@
         <v>76.1621233859398</v>
       </c>
       <c r="H162" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I162"/>
     </row>
@@ -5071,25 +5071,25 @@
         <v>103</v>
       </c>
       <c r="B163" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C163" t="n">
-        <v>5.85970749825892</v>
+        <v>117.931207923857</v>
       </c>
       <c r="D163" t="n">
-        <v>2.73299221888054</v>
+        <v>53.6194671067111</v>
       </c>
       <c r="E163" t="n">
-        <v>1.25943300020396</v>
+        <v>17.2797769119108</v>
       </c>
       <c r="F163" t="n">
-        <v>5.85970749825892</v>
+        <v>161.07593729738</v>
       </c>
       <c r="G163" t="n">
         <v>76.1621233859398</v>
       </c>
       <c r="H163" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I163"/>
     </row>
@@ -5098,25 +5098,25 @@
         <v>103</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C164" t="n">
-        <v>117.931207923857</v>
+        <v>5.85970749825892</v>
       </c>
       <c r="D164" t="n">
-        <v>53.6194671067111</v>
+        <v>2.73299221888054</v>
       </c>
       <c r="E164" t="n">
-        <v>17.2797769119108</v>
+        <v>1.25943300020396</v>
       </c>
       <c r="F164" t="n">
-        <v>161.07593729738</v>
+        <v>5.85970749825892</v>
       </c>
       <c r="G164" t="n">
         <v>76.1621233859398</v>
       </c>
       <c r="H164" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I164"/>
     </row>
@@ -5143,7 +5143,7 @@
         <v>69.3976256778543</v>
       </c>
       <c r="H165" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I165" t="s">
         <v>105</v>
@@ -5172,7 +5172,7 @@
         <v>69.3976256778543</v>
       </c>
       <c r="H166" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I166" t="s">
         <v>105</v>
@@ -5201,7 +5201,7 @@
         <v>71.0978197954852</v>
       </c>
       <c r="H167" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I167" t="s">
         <v>105</v>
@@ -5212,7 +5212,7 @@
         <v>107</v>
       </c>
       <c r="B168" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C168" t="n">
         <v>0.356864122375712</v>
@@ -5374,19 +5374,19 @@
         <v>112</v>
       </c>
       <c r="B174" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C174" t="n">
-        <v>0.246111439259697</v>
+        <v>29507.8046859618</v>
       </c>
       <c r="D174" t="n">
-        <v>0.0946495589522645</v>
+        <v>15881.0066604049</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0223495702005731</v>
+        <v>5655.3245730393</v>
       </c>
       <c r="F174" t="n">
-        <v>0.48519837857757</v>
+        <v>35003.5962690468</v>
       </c>
       <c r="G174" t="n">
         <v>76.6232324493846</v>
@@ -5401,19 +5401,19 @@
         <v>112</v>
       </c>
       <c r="B175" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C175" t="n">
-        <v>29507.8046859618</v>
+        <v>0.246111439259697</v>
       </c>
       <c r="D175" t="n">
-        <v>15881.0066604049</v>
+        <v>0.0946495589522645</v>
       </c>
       <c r="E175" t="n">
-        <v>5655.3245730393</v>
+        <v>0.0223495702005731</v>
       </c>
       <c r="F175" t="n">
-        <v>35003.5962690468</v>
+        <v>0.48519837857757</v>
       </c>
       <c r="G175" t="n">
         <v>76.6232324493846</v>
@@ -5428,7 +5428,7 @@
         <v>113</v>
       </c>
       <c r="B176" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C176" t="n">
         <v>112.935735347578</v>
@@ -5455,19 +5455,19 @@
         <v>114</v>
       </c>
       <c r="B177" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C177" t="n">
-        <v>9.38545909109238</v>
+        <v>12.0730674623977</v>
       </c>
       <c r="D177" t="n">
-        <v>4.45532071226407</v>
+        <v>5.52593235210105</v>
       </c>
       <c r="E177" t="n">
-        <v>0.612445844820796</v>
+        <v>2.16770356458113</v>
       </c>
       <c r="F177" t="n">
-        <v>29.8980160943351</v>
+        <v>20.2263865448408</v>
       </c>
       <c r="G177" t="n">
         <v>78.7320302765431</v>
@@ -5482,19 +5482,19 @@
         <v>114</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C178" t="n">
-        <v>12.0730674623977</v>
+        <v>9.38545909109238</v>
       </c>
       <c r="D178" t="n">
-        <v>5.52593235210105</v>
+        <v>4.45532071226407</v>
       </c>
       <c r="E178" t="n">
-        <v>2.16770356458113</v>
+        <v>0.612445844820796</v>
       </c>
       <c r="F178" t="n">
-        <v>20.2263865448408</v>
+        <v>29.8980160943351</v>
       </c>
       <c r="G178" t="n">
         <v>78.7320302765431</v>
